--- a/MyMojioWebsite/src/com/mojio/xls/LocateVehicle.xlsx
+++ b/MyMojioWebsite/src/com/mojio/xls/LocateVehicle.xlsx
@@ -53,6 +53,9 @@
     <t>Proceed_on_Fail</t>
   </si>
   <si>
+    <t>Result1</t>
+  </si>
+  <si>
     <t>TS001</t>
   </si>
   <si>
@@ -65,6 +68,9 @@
     <t>config|browserType</t>
   </si>
   <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>TS002</t>
   </si>
   <si>
@@ -185,7 +191,7 @@
     <t>Close the Browser</t>
   </si>
   <si>
-    <t>closeBroswer</t>
+    <t>closeBrowser</t>
   </si>
   <si>
     <t>Sign_In_Page</t>
@@ -216,20 +222,15 @@
   </si>
   <si>
     <t>Location</t>
-  </si>
-  <si>
-    <t>Result1</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+  <numFmts count="2">
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt formatCode="GENERAL" numFmtId="165"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -255,7 +256,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +267,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -284,16 +291,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF0084D1"/>
         <bgColor rgb="FF008080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
       </patternFill>
     </fill>
   </fills>
@@ -355,7 +352,7 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -367,15 +364,18 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="6" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="6" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -461,10 +461,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="30.280612244898" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="25.4234693877551" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="25.2908163265306" collapsed="true"/>
-    <col min="4" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2908163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -515,20 +515,20 @@
   <dimension ref="1:15"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E31" activeCellId="0" pane="topLeft" sqref="E31"/>
+      <selection activeCell="D24" activeCellId="0" pane="topLeft" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="31.8571428571429" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="7.0" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="35.7551020408163" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="21.4285714285714" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="38.4285714285714" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="34.1428571428571" collapsed="true"/>
-    <col min="7" max="7" hidden="false" style="0" width="13.8418367346939" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" hidden="false" style="0" width="7.51171875" collapsed="true"/>
-    <col min="9" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.7551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.4285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.4285714285714"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.1428571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.8418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.51530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -553,230 +553,230 @@
       <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s" s="9">
-        <v>66</v>
+      <c r="H1" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" t="s">
-        <v>67</v>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" t="s">
-        <v>67</v>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
+      <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
+      <c r="A9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
+      <c r="A10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11" s="8">
+      <c r="A11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="A10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11" s="7">
-      <c r="A11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="C11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="0" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
@@ -809,26 +809,26 @@
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12" s="7">
-      <c r="A12" s="6" t="s">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12" s="8">
+      <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="B12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="D12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="0" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
@@ -861,26 +861,26 @@
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13" s="7">
-      <c r="A13" s="6" t="s">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13" s="8">
+      <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="B13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="D13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="0" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
@@ -913,28 +913,28 @@
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14" s="7">
-      <c r="A14" s="6" t="s">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14" s="8">
+      <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="B14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="E14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="7"/>
       <c r="H14" s="0" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
@@ -968,23 +968,23 @@
       <c r="AMJ14" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" t="s">
-        <v>67</v>
+      <c r="B15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1011,26 +1011,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="27.4234693877551" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="27.8520408163265" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="27.2857142857143" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="27.0" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="18.5765306122449" collapsed="true"/>
-    <col min="6" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>2</v>
@@ -1038,16 +1038,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>4</v>
@@ -1077,22 +1077,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="36.9948979591837" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="18.8520408163265" collapsed="true"/>
-    <col min="3" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9948979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="7" t="s">
-        <v>65</v>
+      <c r="A2" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
